--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651792.4117742972</v>
+        <v>518623.1684434052</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1208696.173652804</v>
+        <v>1131712.973902314</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23462971.82652423</v>
+        <v>23404792.4403696</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4837596.916802322</v>
+        <v>4866410.711730083</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>13.18456318129115</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>13.18456318129113</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>13.18456318129115</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="R12" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>13.18456318129113</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>25.75359370674563</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.18456318129115</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>13.18456318129115</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>25.75359370674563</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1888,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>25.75359370674563</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>17.42191669726542</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R18" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="T18" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>3.224589128737045</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="G20" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>25.75359370674563</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="C21" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>17.42191669726542</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3.224589128737035</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2326,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>59.75657007276244</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>11.90074236257996</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>37.22756549475386</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
     </row>
     <row r="25">
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.75657007276244</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="W26" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="X26" t="n">
-        <v>67.84351733964857</v>
+        <v>11.90074236257997</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>44.15291272711835</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R27" t="n">
-        <v>59.75657007276244</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="Y27" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
     </row>
     <row r="28">
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>66.68191730512686</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>59.75657007276244</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2879,16 +2879,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>37.22756549475386</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2915,22 +2915,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3028,31 +3028,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>59.75657007276241</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>11.90074236257996</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3113,25 +3113,25 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>67.84351733964857</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3152,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.52900457800858</v>
+        <v>8.388207854423065</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>37.22756549475385</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>60.73723220235669</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>52.87466722464953</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>52.87466722464953</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>52.87466722464953</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.57200689147128</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>53.49735412383576</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>60.73723220235669</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>60.73723220235669</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>60.73723220235669</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>24.04300231346268</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>52.87466722464953</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>52.87466722464953</v>
+        <v>60.73723220235669</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>30.96834954582719</v>
       </c>
       <c r="W36" t="n">
-        <v>52.87466722464953</v>
+        <v>60.73723220235669</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>40.92832359838125</v>
       </c>
       <c r="C38" t="n">
-        <v>46.57200689147128</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>52.87466722464953</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>52.87466722464953</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>52.87466722464953</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>46.4672157111504</v>
       </c>
     </row>
     <row r="39">
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>46.57200689147128</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>52.87466722464953</v>
+        <v>40.92832359838127</v>
       </c>
       <c r="V39" t="n">
-        <v>52.87466722464953</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>52.87466722464953</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>38.60465073344326</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>38.60465073344326</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>34.00297636601682</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>26.73099602985287</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>38.60465073344326</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>38.60465073344326</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>38.60465073344326</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>26.73099602985288</v>
       </c>
       <c r="W42" t="n">
-        <v>34.00297636601682</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>38.60465073344326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>34.00297636601682</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>38.60465073344326</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="V44" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>26.73099602985287</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>38.60465073344326</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>38.60465073344326</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.73099602985287</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="V45" t="n">
-        <v>38.60465073344326</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>11.47397178800823</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.75534983878502</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="C11" t="n">
-        <v>44.75534983878502</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="D11" t="n">
-        <v>44.75534983878502</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="E11" t="n">
-        <v>44.75534983878502</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="F11" t="n">
-        <v>31.43760925162223</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="G11" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="H11" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="I11" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="J11" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="K11" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="L11" t="n">
-        <v>16.01666962304898</v>
+        <v>16.01666962304894</v>
       </c>
       <c r="M11" t="n">
-        <v>30.83583123689803</v>
+        <v>30.83583123689796</v>
       </c>
       <c r="N11" t="n">
-        <v>45.65499285074709</v>
+        <v>45.65499285074698</v>
       </c>
       <c r="O11" t="n">
-        <v>45.92091405365831</v>
+        <v>45.92091405365824</v>
       </c>
       <c r="P11" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="R11" t="n">
-        <v>59.87540045999617</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="S11" t="n">
-        <v>59.87540045999617</v>
+        <v>31.43760925162216</v>
       </c>
       <c r="T11" t="n">
-        <v>59.87540045999617</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="U11" t="n">
-        <v>59.87540045999617</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="V11" t="n">
-        <v>59.87540045999617</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="W11" t="n">
-        <v>59.87540045999617</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="X11" t="n">
-        <v>59.87540045999617</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.75534983878502</v>
+        <v>1.197508009199921</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.5152485963627</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="C12" t="n">
-        <v>14.5152485963627</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="D12" t="n">
-        <v>14.5152485963627</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="E12" t="n">
-        <v>14.5152485963627</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="F12" t="n">
-        <v>14.5152485963627</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="G12" t="n">
-        <v>1.197508009199924</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="H12" t="n">
-        <v>1.197508009199924</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="I12" t="n">
-        <v>1.197508009199924</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="J12" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="K12" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="L12" t="n">
-        <v>15.41791561844901</v>
+        <v>15.41791561844897</v>
       </c>
       <c r="M12" t="n">
-        <v>30.23707723229806</v>
+        <v>30.237077232298</v>
       </c>
       <c r="N12" t="n">
-        <v>45.05623884614712</v>
+        <v>45.05623884614702</v>
       </c>
       <c r="O12" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="P12" t="n">
-        <v>59.87540045999617</v>
+        <v>59.87540045999604</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.75534983878502</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="R12" t="n">
-        <v>29.63529921757386</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="S12" t="n">
-        <v>29.63529921757386</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="T12" t="n">
-        <v>29.63529921757386</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="U12" t="n">
-        <v>29.63529921757386</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="V12" t="n">
-        <v>29.63529921757386</v>
+        <v>44.75534983878492</v>
       </c>
       <c r="W12" t="n">
-        <v>14.5152485963627</v>
+        <v>29.6352992175738</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5152485963627</v>
+        <v>16.31755863041104</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5152485963627</v>
+        <v>16.31755863041104</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="C13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="D13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="E13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="F13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="G13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="H13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="I13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="J13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="K13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="L13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="M13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="N13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="O13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="P13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="R13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="S13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="T13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="U13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="V13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="W13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="X13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.197508009199924</v>
+        <v>1.197508009199921</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.31755863041108</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="C14" t="n">
-        <v>16.31755863041108</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="D14" t="n">
-        <v>16.31755863041108</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="E14" t="n">
-        <v>16.31755863041108</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="F14" t="n">
-        <v>16.31755863041108</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="G14" t="n">
-        <v>1.197508009199924</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="H14" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I14" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J14" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K14" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L14" t="n">
-        <v>1.463429212111153</v>
+        <v>31.28558726863968</v>
       </c>
       <c r="M14" t="n">
-        <v>16.28259082596021</v>
+        <v>60.23206520878293</v>
       </c>
       <c r="N14" t="n">
-        <v>31.10175243980926</v>
+        <v>89.17854314892618</v>
       </c>
       <c r="O14" t="n">
-        <v>45.92091405365831</v>
+        <v>103.0009800184834</v>
       </c>
       <c r="P14" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.55765987283339</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="R14" t="n">
-        <v>31.43760925162223</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="S14" t="n">
-        <v>31.43760925162223</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="T14" t="n">
-        <v>31.43760925162223</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="U14" t="n">
-        <v>16.31755863041108</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="V14" t="n">
-        <v>16.31755863041108</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="W14" t="n">
-        <v>16.31755863041108</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="X14" t="n">
-        <v>16.31755863041108</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.31755863041108</v>
+        <v>87.42125773168455</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.5152485963627</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="C15" t="n">
-        <v>1.197508009199924</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="D15" t="n">
-        <v>1.197508009199924</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="E15" t="n">
-        <v>1.197508009199924</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="F15" t="n">
-        <v>1.197508009199924</v>
+        <v>61.40752671476977</v>
       </c>
       <c r="G15" t="n">
-        <v>1.197508009199924</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="H15" t="n">
-        <v>1.197508009199924</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="I15" t="n">
-        <v>1.197508009199924</v>
+        <v>31.8733180216331</v>
       </c>
       <c r="J15" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K15" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L15" t="n">
-        <v>15.41791561844901</v>
+        <v>30.11603260439146</v>
       </c>
       <c r="M15" t="n">
-        <v>30.23707723229806</v>
+        <v>59.06251054453472</v>
       </c>
       <c r="N15" t="n">
-        <v>45.05623884614712</v>
+        <v>88.00898848467797</v>
       </c>
       <c r="O15" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="P15" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="Q15" t="n">
-        <v>59.87540045999617</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="R15" t="n">
-        <v>44.75534983878502</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="S15" t="n">
-        <v>44.75534983878502</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="T15" t="n">
-        <v>44.75534983878502</v>
+        <v>116.9554664248212</v>
       </c>
       <c r="U15" t="n">
-        <v>29.63529921757386</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="V15" t="n">
-        <v>29.63529921757386</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="W15" t="n">
-        <v>14.5152485963627</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5152485963627</v>
+        <v>87.42125773168455</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5152485963627</v>
+        <v>87.42125773168455</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="C16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="D16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="E16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="F16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="G16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="H16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="I16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="J16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="K16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="L16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="M16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="N16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="O16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="P16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="R16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="S16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="T16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="U16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="V16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="W16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="X16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.339109328496424</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.40752671476977</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C17" t="n">
-        <v>61.40752671476977</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D17" t="n">
-        <v>61.40752671476977</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E17" t="n">
-        <v>31.8733180216331</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F17" t="n">
-        <v>31.8733180216331</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G17" t="n">
-        <v>31.8733180216331</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H17" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I17" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J17" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K17" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L17" t="n">
-        <v>16.1615461980536</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M17" t="n">
-        <v>45.10802413819685</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N17" t="n">
-        <v>74.05450207834011</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O17" t="n">
-        <v>103.0009800184834</v>
+        <v>167.4756737901836</v>
       </c>
       <c r="P17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.94173540790645</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R17" t="n">
-        <v>90.94173540790645</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="S17" t="n">
-        <v>90.94173540790645</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="T17" t="n">
-        <v>90.94173540790645</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="U17" t="n">
-        <v>90.94173540790645</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="V17" t="n">
-        <v>90.94173540790645</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="W17" t="n">
-        <v>90.94173540790645</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X17" t="n">
-        <v>90.94173540790645</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y17" t="n">
-        <v>90.94173540790645</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.339109328496424</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="C18" t="n">
-        <v>2.339109328496424</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="D18" t="n">
-        <v>2.339109328496424</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="E18" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="F18" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="G18" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="H18" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="I18" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J18" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K18" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L18" t="n">
-        <v>30.11603260439146</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M18" t="n">
-        <v>59.06251054453472</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N18" t="n">
-        <v>88.00898848467797</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O18" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="P18" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.19889614400448</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="R18" t="n">
-        <v>64.6646874508678</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="S18" t="n">
-        <v>35.13047875773113</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="T18" t="n">
-        <v>5.596270064594449</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="U18" t="n">
-        <v>2.339109328496424</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="V18" t="n">
-        <v>2.339109328496424</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="W18" t="n">
-        <v>2.339109328496424</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="X18" t="n">
-        <v>2.339109328496424</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.339109328496424</v>
+        <v>67.04219587705748</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="M19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="N19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="O19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="P19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="R19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="S19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="T19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="U19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="V19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.8733180216331</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="C20" t="n">
-        <v>31.8733180216331</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="D20" t="n">
-        <v>31.8733180216331</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="E20" t="n">
-        <v>31.8733180216331</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="F20" t="n">
-        <v>31.8733180216331</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="G20" t="n">
-        <v>2.339109328496424</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="H20" t="n">
-        <v>2.339109328496424</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="I20" t="n">
-        <v>2.339109328496424</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="J20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L20" t="n">
-        <v>16.16154619805366</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M20" t="n">
-        <v>45.10802413819691</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N20" t="n">
-        <v>74.05450207834016</v>
+        <v>122.5717091415445</v>
       </c>
       <c r="O20" t="n">
-        <v>103.0009800184834</v>
+        <v>167.4756737901836</v>
       </c>
       <c r="P20" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.94173540790645</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="R20" t="n">
-        <v>90.94173540790645</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="S20" t="n">
-        <v>90.94173540790645</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="T20" t="n">
-        <v>90.94173540790645</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="U20" t="n">
-        <v>90.94173540790645</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="V20" t="n">
-        <v>90.94173540790645</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="W20" t="n">
-        <v>90.94173540790645</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="X20" t="n">
-        <v>90.94173540790645</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.40752671476977</v>
+        <v>141.0756942619012</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31.8733180216331</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="C21" t="n">
-        <v>2.339109328496424</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="D21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="E21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="F21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="G21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="H21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="I21" t="n">
-        <v>2.339109328496424</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="J21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K21" t="n">
-        <v>2.339109328496424</v>
+        <v>31.89429715218325</v>
       </c>
       <c r="L21" t="n">
-        <v>30.11603260439149</v>
+        <v>62.67575295910007</v>
       </c>
       <c r="M21" t="n">
-        <v>59.06251054453475</v>
+        <v>107.5797176077391</v>
       </c>
       <c r="N21" t="n">
-        <v>88.008988484678</v>
+        <v>152.4836822563782</v>
       </c>
       <c r="O21" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="P21" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.19889614400446</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="R21" t="n">
-        <v>94.19889614400446</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="S21" t="n">
-        <v>94.19889614400446</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="T21" t="n">
-        <v>94.19889614400446</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="U21" t="n">
-        <v>90.94173540790645</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="V21" t="n">
-        <v>90.94173540790645</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="W21" t="n">
-        <v>90.94173540790645</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="X21" t="n">
-        <v>61.40752671476977</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="Y21" t="n">
-        <v>61.40752671476977</v>
+        <v>158.6735899157047</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="M22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="N22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="O22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="P22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Q22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="R22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="S22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="T22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="U22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="V22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y22" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>211.0138975679251</v>
+        <v>145.4353856805378</v>
       </c>
       <c r="C23" t="n">
-        <v>211.0138975679251</v>
+        <v>145.4353856805378</v>
       </c>
       <c r="D23" t="n">
-        <v>211.0138975679251</v>
+        <v>145.4353856805378</v>
       </c>
       <c r="E23" t="n">
-        <v>142.4850921743407</v>
+        <v>145.4353856805378</v>
       </c>
       <c r="F23" t="n">
-        <v>73.9562867807563</v>
+        <v>145.4353856805378</v>
       </c>
       <c r="G23" t="n">
-        <v>5.427481387171886</v>
+        <v>145.4353856805378</v>
       </c>
       <c r="H23" t="n">
-        <v>5.427481387171886</v>
+        <v>68.96459546098659</v>
       </c>
       <c r="I23" t="n">
-        <v>5.427481387171886</v>
+        <v>68.96459546098659</v>
       </c>
       <c r="J23" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K23" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L23" t="n">
-        <v>63.3937731823219</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M23" t="n">
-        <v>130.558855348574</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N23" t="n">
-        <v>190.2545007860043</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O23" t="n">
-        <v>257.4195829522564</v>
+        <v>288.869842863085</v>
       </c>
       <c r="P23" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.0138975679251</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="R23" t="n">
-        <v>211.0138975679251</v>
+        <v>157.4563375619317</v>
       </c>
       <c r="S23" t="n">
-        <v>211.0138975679251</v>
+        <v>157.4563375619317</v>
       </c>
       <c r="T23" t="n">
-        <v>211.0138975679251</v>
+        <v>157.4563375619317</v>
       </c>
       <c r="U23" t="n">
-        <v>211.0138975679251</v>
+        <v>145.4353856805378</v>
       </c>
       <c r="V23" t="n">
-        <v>211.0138975679251</v>
+        <v>145.4353856805378</v>
       </c>
       <c r="W23" t="n">
-        <v>211.0138975679251</v>
+        <v>145.4353856805378</v>
       </c>
       <c r="X23" t="n">
-        <v>211.0138975679251</v>
+        <v>145.4353856805378</v>
       </c>
       <c r="Y23" t="n">
-        <v>211.0138975679251</v>
+        <v>145.4353856805378</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>111.5598882906087</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C24" t="n">
-        <v>43.03108289702428</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D24" t="n">
-        <v>43.03108289702428</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E24" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F24" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G24" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H24" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I24" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J24" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K24" t="n">
-        <v>33.6931753354247</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L24" t="n">
-        <v>92.13994037745104</v>
+        <v>77.97726478687639</v>
       </c>
       <c r="M24" t="n">
-        <v>137.0439050260901</v>
+        <v>152.9262862810585</v>
       </c>
       <c r="N24" t="n">
-        <v>204.2089871923422</v>
+        <v>227.8753077752407</v>
       </c>
       <c r="O24" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="P24" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q24" t="n">
-        <v>248.6174990777775</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R24" t="n">
-        <v>248.6174990777775</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S24" t="n">
-        <v>248.6174990777775</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T24" t="n">
-        <v>248.6174990777775</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U24" t="n">
-        <v>248.6174990777775</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="V24" t="n">
-        <v>248.6174990777775</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="W24" t="n">
-        <v>248.6174990777775</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="X24" t="n">
-        <v>248.6174990777775</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="Y24" t="n">
-        <v>180.0886936841931</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y25" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>73.9562867807563</v>
+        <v>68.96459546098659</v>
       </c>
       <c r="C26" t="n">
-        <v>73.9562867807563</v>
+        <v>68.96459546098659</v>
       </c>
       <c r="D26" t="n">
-        <v>73.9562867807563</v>
+        <v>68.96459546098659</v>
       </c>
       <c r="E26" t="n">
-        <v>73.9562867807563</v>
+        <v>68.96459546098659</v>
       </c>
       <c r="F26" t="n">
-        <v>73.9562867807563</v>
+        <v>68.96459546098659</v>
       </c>
       <c r="G26" t="n">
-        <v>5.427481387171886</v>
+        <v>68.96459546098659</v>
       </c>
       <c r="H26" t="n">
-        <v>5.427481387171886</v>
+        <v>68.96459546098659</v>
       </c>
       <c r="I26" t="n">
-        <v>5.427481387171886</v>
+        <v>68.96459546098659</v>
       </c>
       <c r="J26" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K26" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L26" t="n">
-        <v>63.3937731823219</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M26" t="n">
-        <v>123.0894186197522</v>
+        <v>138.9717998747207</v>
       </c>
       <c r="N26" t="n">
-        <v>190.2545007860043</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O26" t="n">
-        <v>257.4195829522564</v>
+        <v>288.869842863085</v>
       </c>
       <c r="P26" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q26" t="n">
-        <v>211.0138975679251</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="R26" t="n">
-        <v>211.0138975679251</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="S26" t="n">
-        <v>211.0138975679251</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="T26" t="n">
-        <v>211.0138975679251</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="U26" t="n">
-        <v>211.0138975679251</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="V26" t="n">
-        <v>211.0138975679251</v>
+        <v>157.4563375619317</v>
       </c>
       <c r="W26" t="n">
-        <v>142.4850921743407</v>
+        <v>80.9855473423805</v>
       </c>
       <c r="X26" t="n">
-        <v>73.9562867807563</v>
+        <v>68.96459546098659</v>
       </c>
       <c r="Y26" t="n">
-        <v>73.9562867807563</v>
+        <v>68.96459546098659</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C27" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D27" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E27" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F27" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G27" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H27" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I27" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J27" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K27" t="n">
-        <v>33.6931753354247</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L27" t="n">
-        <v>100.8582575016768</v>
+        <v>81.0055080795706</v>
       </c>
       <c r="M27" t="n">
-        <v>168.0233396679289</v>
+        <v>131.7637476688453</v>
       </c>
       <c r="N27" t="n">
-        <v>235.188421834181</v>
+        <v>198.9288298350974</v>
       </c>
       <c r="O27" t="n">
-        <v>271.3740693585943</v>
+        <v>227.8753077752407</v>
       </c>
       <c r="P27" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q27" t="n">
-        <v>271.3740693585943</v>
+        <v>280.0677589886061</v>
       </c>
       <c r="R27" t="n">
-        <v>211.0138975679251</v>
+        <v>280.0677589886061</v>
       </c>
       <c r="S27" t="n">
-        <v>142.4850921743407</v>
+        <v>280.0677589886061</v>
       </c>
       <c r="T27" t="n">
-        <v>142.4850921743407</v>
+        <v>280.0677589886061</v>
       </c>
       <c r="U27" t="n">
-        <v>142.4850921743407</v>
+        <v>280.0677589886061</v>
       </c>
       <c r="V27" t="n">
-        <v>142.4850921743407</v>
+        <v>280.0677589886061</v>
       </c>
       <c r="W27" t="n">
-        <v>73.9562867807563</v>
+        <v>203.5969687690549</v>
       </c>
       <c r="X27" t="n">
-        <v>73.9562867807563</v>
+        <v>127.1261785495037</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.427481387171886</v>
+        <v>50.65538832995244</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>211.0138975679251</v>
+        <v>73.41195861076912</v>
       </c>
       <c r="C29" t="n">
-        <v>211.0138975679251</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D29" t="n">
-        <v>211.0138975679251</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E29" t="n">
-        <v>142.4850921743407</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F29" t="n">
-        <v>73.9562867807563</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G29" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H29" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I29" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J29" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K29" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L29" t="n">
-        <v>63.3937731823219</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M29" t="n">
-        <v>130.558855348574</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N29" t="n">
-        <v>197.7239375148261</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O29" t="n">
-        <v>257.4195829522564</v>
+        <v>288.8698428630849</v>
       </c>
       <c r="P29" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q29" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R29" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S29" t="n">
-        <v>211.0138975679251</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T29" t="n">
-        <v>211.0138975679251</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="U29" t="n">
-        <v>211.0138975679251</v>
+        <v>149.8827488303203</v>
       </c>
       <c r="V29" t="n">
-        <v>211.0138975679251</v>
+        <v>73.41195861076912</v>
       </c>
       <c r="W29" t="n">
-        <v>211.0138975679251</v>
+        <v>73.41195861076912</v>
       </c>
       <c r="X29" t="n">
-        <v>211.0138975679251</v>
+        <v>73.41195861076912</v>
       </c>
       <c r="Y29" t="n">
-        <v>211.0138975679251</v>
+        <v>73.41195861076912</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>43.03108289702428</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="C30" t="n">
-        <v>43.03108289702428</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="D30" t="n">
-        <v>43.03108289702428</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="E30" t="n">
-        <v>5.427481387171886</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="F30" t="n">
-        <v>5.427481387171886</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="G30" t="n">
-        <v>5.427481387171886</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="H30" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I30" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J30" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K30" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L30" t="n">
-        <v>63.19346243730777</v>
+        <v>81.0055080795706</v>
       </c>
       <c r="M30" t="n">
-        <v>108.0974270859468</v>
+        <v>125.9094727282097</v>
       </c>
       <c r="N30" t="n">
-        <v>175.2625092521989</v>
+        <v>193.0745548944618</v>
       </c>
       <c r="O30" t="n">
-        <v>204.2089871923422</v>
+        <v>227.8753077752407</v>
       </c>
       <c r="P30" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q30" t="n">
-        <v>248.6174990777775</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R30" t="n">
-        <v>248.6174990777775</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S30" t="n">
-        <v>180.0886936841931</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T30" t="n">
-        <v>111.5598882906087</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U30" t="n">
-        <v>111.5598882906087</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="V30" t="n">
-        <v>43.03108289702428</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="W30" t="n">
-        <v>43.03108289702428</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="X30" t="n">
-        <v>43.03108289702428</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Y30" t="n">
-        <v>43.03108289702428</v>
+        <v>302.8243292694228</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>202.8452639650098</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="C32" t="n">
-        <v>134.3164585714254</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="D32" t="n">
-        <v>134.3164585714254</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="E32" t="n">
-        <v>65.78765317784099</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="F32" t="n">
-        <v>5.427481387171886</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="G32" t="n">
-        <v>5.427481387171886</v>
+        <v>221.906175900089</v>
       </c>
       <c r="H32" t="n">
-        <v>5.427481387171886</v>
+        <v>145.4353856805378</v>
       </c>
       <c r="I32" t="n">
-        <v>5.427481387171886</v>
+        <v>68.96459546098659</v>
       </c>
       <c r="J32" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K32" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L32" t="n">
-        <v>55.92433645350013</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M32" t="n">
-        <v>123.0894186197522</v>
+        <v>138.9717998747207</v>
       </c>
       <c r="N32" t="n">
-        <v>190.2545007860043</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O32" t="n">
-        <v>257.4195829522564</v>
+        <v>288.869842863085</v>
       </c>
       <c r="P32" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q32" t="n">
-        <v>271.3740693585943</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="R32" t="n">
-        <v>271.3740693585943</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="S32" t="n">
-        <v>271.3740693585943</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="T32" t="n">
-        <v>271.3740693585943</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="U32" t="n">
-        <v>271.3740693585943</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="V32" t="n">
-        <v>271.3740693585943</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="W32" t="n">
-        <v>271.3740693585943</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="X32" t="n">
-        <v>271.3740693585943</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.3740693585943</v>
+        <v>233.9271277814829</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>211.0138975679251</v>
+        <v>217.8806018231817</v>
       </c>
       <c r="C33" t="n">
-        <v>211.0138975679251</v>
+        <v>217.8806018231817</v>
       </c>
       <c r="D33" t="n">
-        <v>142.4850921743407</v>
+        <v>217.8806018231817</v>
       </c>
       <c r="E33" t="n">
-        <v>73.9562867807563</v>
+        <v>217.8806018231817</v>
       </c>
       <c r="F33" t="n">
-        <v>5.427481387171886</v>
+        <v>217.8806018231817</v>
       </c>
       <c r="G33" t="n">
-        <v>5.427481387171886</v>
+        <v>217.8806018231817</v>
       </c>
       <c r="H33" t="n">
-        <v>5.427481387171886</v>
+        <v>141.4098116036305</v>
       </c>
       <c r="I33" t="n">
-        <v>5.427481387171886</v>
+        <v>64.93902138407924</v>
       </c>
       <c r="J33" t="n">
-        <v>5.427481387171886</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K33" t="n">
-        <v>5.427481387171886</v>
+        <v>34.32218053364127</v>
       </c>
       <c r="L33" t="n">
-        <v>72.59256355342397</v>
+        <v>109.2712020278234</v>
       </c>
       <c r="M33" t="n">
-        <v>139.7576457196761</v>
+        <v>184.2202235220056</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9227278859282</v>
+        <v>251.3853056882577</v>
       </c>
       <c r="O33" t="n">
-        <v>271.3740693585943</v>
+        <v>280.3317836284009</v>
       </c>
       <c r="P33" t="n">
-        <v>271.3740693585943</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q33" t="n">
-        <v>248.6174990777775</v>
+        <v>294.3513920427329</v>
       </c>
       <c r="R33" t="n">
-        <v>248.6174990777775</v>
+        <v>217.8806018231817</v>
       </c>
       <c r="S33" t="n">
-        <v>248.6174990777775</v>
+        <v>217.8806018231817</v>
       </c>
       <c r="T33" t="n">
-        <v>248.6174990777775</v>
+        <v>217.8806018231817</v>
       </c>
       <c r="U33" t="n">
-        <v>211.0138975679251</v>
+        <v>217.8806018231817</v>
       </c>
       <c r="V33" t="n">
-        <v>211.0138975679251</v>
+        <v>217.8806018231817</v>
       </c>
       <c r="W33" t="n">
-        <v>211.0138975679251</v>
+        <v>217.8806018231817</v>
       </c>
       <c r="X33" t="n">
-        <v>211.0138975679251</v>
+        <v>217.8806018231817</v>
       </c>
       <c r="Y33" t="n">
-        <v>211.0138975679251</v>
+        <v>217.8806018231817</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y34" t="n">
-        <v>271.3740693585943</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>164.4562376950918</v>
+        <v>66.20971817452863</v>
       </c>
       <c r="C35" t="n">
-        <v>164.4562376950918</v>
+        <v>66.20971817452863</v>
       </c>
       <c r="D35" t="n">
-        <v>164.4562376950918</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="E35" t="n">
-        <v>164.4562376950918</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="F35" t="n">
-        <v>111.0474829227185</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="G35" t="n">
-        <v>57.63872815034523</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="H35" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="I35" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="J35" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="K35" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="L35" t="n">
-        <v>40.50642083505116</v>
+        <v>62.82527037133855</v>
       </c>
       <c r="M35" t="n">
-        <v>92.85234138745419</v>
+        <v>122.9551302516717</v>
       </c>
       <c r="N35" t="n">
-        <v>145.1982619398572</v>
+        <v>183.0849901320048</v>
       </c>
       <c r="O35" t="n">
-        <v>197.5441824922603</v>
+        <v>228.9944424030889</v>
       </c>
       <c r="P35" t="n">
-        <v>211.4986688985981</v>
+        <v>242.9489288094268</v>
       </c>
       <c r="Q35" t="n">
-        <v>164.4562376950918</v>
+        <v>242.9489288094268</v>
       </c>
       <c r="R35" t="n">
-        <v>164.4562376950918</v>
+        <v>242.9489288094268</v>
       </c>
       <c r="S35" t="n">
-        <v>164.4562376950918</v>
+        <v>242.9489288094268</v>
       </c>
       <c r="T35" t="n">
-        <v>164.4562376950918</v>
+        <v>242.9489288094268</v>
       </c>
       <c r="U35" t="n">
-        <v>164.4562376950918</v>
+        <v>188.9111973712088</v>
       </c>
       <c r="V35" t="n">
-        <v>164.4562376950918</v>
+        <v>127.5604577728687</v>
       </c>
       <c r="W35" t="n">
-        <v>164.4562376950918</v>
+        <v>66.20971817452863</v>
       </c>
       <c r="X35" t="n">
-        <v>164.4562376950918</v>
+        <v>66.20971817452863</v>
       </c>
       <c r="Y35" t="n">
-        <v>164.4562376950918</v>
+        <v>66.20971817452863</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.229973377971962</v>
+        <v>66.20971817452863</v>
       </c>
       <c r="C36" t="n">
-        <v>4.229973377971962</v>
+        <v>66.20971817452863</v>
       </c>
       <c r="D36" t="n">
-        <v>4.229973377971962</v>
+        <v>66.20971817452863</v>
       </c>
       <c r="E36" t="n">
-        <v>4.229973377971962</v>
+        <v>66.20971817452863</v>
       </c>
       <c r="F36" t="n">
-        <v>4.229973377971962</v>
+        <v>66.20971817452863</v>
       </c>
       <c r="G36" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="H36" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="I36" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="J36" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="K36" t="n">
-        <v>4.229973377971962</v>
+        <v>33.12467252444135</v>
       </c>
       <c r="L36" t="n">
-        <v>56.57589393037499</v>
+        <v>93.25453240477448</v>
       </c>
       <c r="M36" t="n">
-        <v>106.8068277937921</v>
+        <v>153.3843922851076</v>
       </c>
       <c r="N36" t="n">
-        <v>159.1527483461951</v>
+        <v>213.5142521654407</v>
       </c>
       <c r="O36" t="n">
-        <v>211.4986688985981</v>
+        <v>242.9489288094268</v>
       </c>
       <c r="P36" t="n">
-        <v>211.4986688985981</v>
+        <v>242.9489288094268</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.7420986177814</v>
+        <v>220.19235852861</v>
       </c>
       <c r="R36" t="n">
-        <v>188.7420986177814</v>
+        <v>220.19235852861</v>
       </c>
       <c r="S36" t="n">
-        <v>164.4562376950918</v>
+        <v>220.19235852861</v>
       </c>
       <c r="T36" t="n">
-        <v>111.0474829227185</v>
+        <v>220.19235852861</v>
       </c>
       <c r="U36" t="n">
-        <v>57.63872815034523</v>
+        <v>158.8416189302699</v>
       </c>
       <c r="V36" t="n">
-        <v>57.63872815034523</v>
+        <v>127.5604577728687</v>
       </c>
       <c r="W36" t="n">
-        <v>4.229973377971962</v>
+        <v>66.20971817452863</v>
       </c>
       <c r="X36" t="n">
-        <v>4.229973377971962</v>
+        <v>66.20971817452863</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.229973377971962</v>
+        <v>66.20971817452863</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="C37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="D37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="E37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="F37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="G37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="H37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="I37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="J37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="K37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="L37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="M37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="N37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="O37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="P37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="R37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="S37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="T37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="U37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="V37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="W37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="X37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.229973377971962</v>
+        <v>4.858978576188536</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>158.0899141262248</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="C38" t="n">
-        <v>111.0474829227185</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="D38" t="n">
-        <v>57.63872815034523</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="E38" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="F38" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="G38" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="H38" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="I38" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="J38" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="K38" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="L38" t="n">
-        <v>40.50642083505116</v>
+        <v>49.71992081093093</v>
       </c>
       <c r="M38" t="n">
-        <v>92.85234138745419</v>
+        <v>79.90928933018594</v>
       </c>
       <c r="N38" t="n">
-        <v>145.1982619398572</v>
+        <v>125.9118328842249</v>
       </c>
       <c r="O38" t="n">
-        <v>197.5441824922603</v>
+        <v>171.9143764382638</v>
       </c>
       <c r="P38" t="n">
-        <v>211.4986688985981</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="Q38" t="n">
-        <v>211.4986688985981</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="R38" t="n">
-        <v>211.4986688985981</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="S38" t="n">
-        <v>211.4986688985981</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="T38" t="n">
-        <v>211.4986688985981</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="U38" t="n">
-        <v>211.4986688985981</v>
+        <v>138.9322813181871</v>
       </c>
       <c r="V38" t="n">
-        <v>211.4986688985981</v>
+        <v>138.9322813181871</v>
       </c>
       <c r="W38" t="n">
-        <v>211.4986688985981</v>
+        <v>138.9322813181871</v>
       </c>
       <c r="X38" t="n">
-        <v>158.0899141262248</v>
+        <v>91.99569979177249</v>
       </c>
       <c r="Y38" t="n">
-        <v>158.0899141262248</v>
+        <v>45.05911826535795</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>51.27240458147831</v>
+        <v>97.59054030972112</v>
       </c>
       <c r="C39" t="n">
-        <v>51.27240458147831</v>
+        <v>97.59054030972112</v>
       </c>
       <c r="D39" t="n">
-        <v>51.27240458147831</v>
+        <v>97.59054030972112</v>
       </c>
       <c r="E39" t="n">
-        <v>4.229973377971962</v>
+        <v>50.65395878330658</v>
       </c>
       <c r="F39" t="n">
-        <v>4.229973377971962</v>
+        <v>50.65395878330658</v>
       </c>
       <c r="G39" t="n">
-        <v>4.229973377971962</v>
+        <v>50.65395878330658</v>
       </c>
       <c r="H39" t="n">
-        <v>4.229973377971962</v>
+        <v>50.65395878330658</v>
       </c>
       <c r="I39" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="J39" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="K39" t="n">
-        <v>32.49566732622478</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="L39" t="n">
-        <v>61.90286314515301</v>
+        <v>49.71992081093093</v>
       </c>
       <c r="M39" t="n">
-        <v>106.8068277937921</v>
+        <v>94.62388545956999</v>
       </c>
       <c r="N39" t="n">
-        <v>159.1527483461951</v>
+        <v>140.6264290136089</v>
       </c>
       <c r="O39" t="n">
-        <v>211.4986688985981</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="P39" t="n">
-        <v>211.4986688985981</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="Q39" t="n">
-        <v>211.4986688985981</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="R39" t="n">
-        <v>211.4986688985981</v>
+        <v>185.8688628446016</v>
       </c>
       <c r="S39" t="n">
-        <v>211.4986688985981</v>
+        <v>138.9322813181871</v>
       </c>
       <c r="T39" t="n">
-        <v>211.4986688985981</v>
+        <v>138.9322813181871</v>
       </c>
       <c r="U39" t="n">
-        <v>158.0899141262248</v>
+        <v>97.59054030972112</v>
       </c>
       <c r="V39" t="n">
-        <v>104.6811593538516</v>
+        <v>97.59054030972112</v>
       </c>
       <c r="W39" t="n">
-        <v>51.27240458147831</v>
+        <v>97.59054030972112</v>
       </c>
       <c r="X39" t="n">
-        <v>51.27240458147831</v>
+        <v>97.59054030972112</v>
       </c>
       <c r="Y39" t="n">
-        <v>51.27240458147831</v>
+        <v>97.59054030972112</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="C40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="D40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="E40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="F40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="G40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="H40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="I40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="J40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="K40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="L40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="M40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="N40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="O40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="P40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="R40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="S40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="T40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="U40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="V40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="W40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="X40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.229973377971962</v>
+        <v>3.717377256892032</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>76.42940953287757</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="C41" t="n">
-        <v>37.43481283242983</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="D41" t="n">
-        <v>3.088372058675461</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="E41" t="n">
-        <v>3.088372058675461</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="F41" t="n">
-        <v>3.088372058675461</v>
+        <v>33.08297658168565</v>
       </c>
       <c r="G41" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="H41" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="I41" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="J41" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="K41" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="L41" t="n">
-        <v>41.30697628478429</v>
+        <v>32.47294022700112</v>
       </c>
       <c r="M41" t="n">
-        <v>64.02690807521756</v>
+        <v>62.5179970725442</v>
       </c>
       <c r="N41" t="n">
-        <v>102.2455123013264</v>
+        <v>92.56305391808729</v>
       </c>
       <c r="O41" t="n">
-        <v>140.4641165274352</v>
+        <v>107.4396826665635</v>
       </c>
       <c r="P41" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="R41" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="S41" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="T41" t="n">
-        <v>154.4186029337731</v>
+        <v>90.73907587267375</v>
       </c>
       <c r="U41" t="n">
-        <v>154.4186029337731</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="V41" t="n">
-        <v>154.4186029337731</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="W41" t="n">
-        <v>115.4240062333253</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="X41" t="n">
-        <v>115.4240062333253</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="Y41" t="n">
-        <v>115.4240062333253</v>
+        <v>60.08398267244613</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>42.0829687591232</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="C42" t="n">
-        <v>3.088372058675461</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="D42" t="n">
-        <v>3.088372058675461</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="E42" t="n">
-        <v>3.088372058675461</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="F42" t="n">
-        <v>3.088372058675461</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="G42" t="n">
-        <v>3.088372058675461</v>
+        <v>33.08297658168565</v>
       </c>
       <c r="H42" t="n">
-        <v>3.088372058675461</v>
+        <v>33.08297658168565</v>
       </c>
       <c r="I42" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="J42" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="K42" t="n">
-        <v>31.35406600692828</v>
+        <v>18.13716983242287</v>
       </c>
       <c r="L42" t="n">
-        <v>49.03491654141214</v>
+        <v>32.35757744167195</v>
       </c>
       <c r="M42" t="n">
-        <v>87.25352076752097</v>
+        <v>62.40263428721504</v>
       </c>
       <c r="N42" t="n">
-        <v>125.4721249936298</v>
+        <v>92.44769113275812</v>
       </c>
       <c r="O42" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="P42" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="Q42" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="R42" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="S42" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="T42" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="U42" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="V42" t="n">
-        <v>154.4186029337731</v>
+        <v>94.39316298214089</v>
       </c>
       <c r="W42" t="n">
-        <v>120.0721621600187</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="X42" t="n">
-        <v>120.0721621600187</v>
+        <v>63.73806978191327</v>
       </c>
       <c r="Y42" t="n">
-        <v>81.07756545957095</v>
+        <v>63.73806978191327</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="C43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="D43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="E43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="F43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="G43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="H43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="I43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="J43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="K43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="L43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="M43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="N43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="O43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="P43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="Q43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="R43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="S43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="T43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="U43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="W43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="X43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="Y43" t="n">
-        <v>154.4186029337731</v>
+        <v>2.427883381458027</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37.43481283242983</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="C44" t="n">
-        <v>37.43481283242983</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="D44" t="n">
-        <v>37.43481283242983</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="E44" t="n">
-        <v>37.43481283242983</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="F44" t="n">
-        <v>37.43481283242983</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="G44" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="H44" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="I44" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="J44" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="K44" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="L44" t="n">
-        <v>41.30697628478429</v>
+        <v>32.47294022700112</v>
       </c>
       <c r="M44" t="n">
-        <v>79.52558051089312</v>
+        <v>62.5179970725442</v>
       </c>
       <c r="N44" t="n">
-        <v>117.7441847370019</v>
+        <v>92.56305391808729</v>
       </c>
       <c r="O44" t="n">
-        <v>140.4641165274352</v>
+        <v>107.4396826665635</v>
       </c>
       <c r="P44" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="R44" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="S44" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="T44" t="n">
-        <v>115.4240062333253</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="U44" t="n">
-        <v>76.42940953287757</v>
+        <v>90.73907587267375</v>
       </c>
       <c r="V44" t="n">
-        <v>37.43481283242983</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="W44" t="n">
-        <v>37.43481283242983</v>
+        <v>29.4288894722185</v>
       </c>
       <c r="X44" t="n">
-        <v>37.43481283242983</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="Y44" t="n">
-        <v>37.43481283242983</v>
+        <v>2.427883381458027</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>81.07756545957095</v>
+        <v>90.73907587267375</v>
       </c>
       <c r="C45" t="n">
-        <v>42.0829687591232</v>
+        <v>90.73907587267375</v>
       </c>
       <c r="D45" t="n">
-        <v>3.088372058675461</v>
+        <v>90.73907587267375</v>
       </c>
       <c r="E45" t="n">
-        <v>3.088372058675461</v>
+        <v>90.73907587267375</v>
       </c>
       <c r="F45" t="n">
-        <v>3.088372058675461</v>
+        <v>90.73907587267375</v>
       </c>
       <c r="G45" t="n">
-        <v>3.088372058675461</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="H45" t="n">
-        <v>3.088372058675461</v>
+        <v>29.4288894722185</v>
       </c>
       <c r="I45" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="J45" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="K45" t="n">
-        <v>31.35406600692828</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="L45" t="n">
-        <v>49.03491654141214</v>
+        <v>16.64829099070711</v>
       </c>
       <c r="M45" t="n">
-        <v>87.25352076752097</v>
+        <v>46.6933478362502</v>
       </c>
       <c r="N45" t="n">
-        <v>125.4721249936298</v>
+        <v>76.73840468179328</v>
       </c>
       <c r="O45" t="n">
-        <v>154.4186029337731</v>
+        <v>105.6848826219365</v>
       </c>
       <c r="P45" t="n">
-        <v>154.4186029337731</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="Q45" t="n">
-        <v>131.6620326529563</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="R45" t="n">
-        <v>131.6620326529563</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="S45" t="n">
-        <v>131.6620326529563</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="T45" t="n">
-        <v>131.6620326529563</v>
+        <v>121.3941690729014</v>
       </c>
       <c r="U45" t="n">
-        <v>131.6620326529563</v>
+        <v>90.73907587267375</v>
       </c>
       <c r="V45" t="n">
-        <v>92.66743595250855</v>
+        <v>90.73907587267375</v>
       </c>
       <c r="W45" t="n">
-        <v>92.66743595250855</v>
+        <v>90.73907587267375</v>
       </c>
       <c r="X45" t="n">
-        <v>81.07756545957095</v>
+        <v>90.73907587267375</v>
       </c>
       <c r="Y45" t="n">
-        <v>81.07756545957095</v>
+        <v>90.73907587267375</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="C46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="D46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="E46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="F46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="G46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="H46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="I46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="J46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="K46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="L46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="M46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="N46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="O46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="P46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="R46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="S46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="T46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="U46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="V46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="W46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="X46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.088372058675461</v>
+        <v>2.427883381458027</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>57.07593346819698</v>
       </c>
       <c r="M3" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N3" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O3" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P3" t="n">
         <v>67.92252959633595</v>
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>105.7199540604334</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N5" t="n">
-        <v>100.6147601570281</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>49.69660049230225</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M6" t="n">
-        <v>29.39821530100195</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N6" t="n">
-        <v>8.890800411909254</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O6" t="n">
-        <v>40.95804287066204</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P6" t="n">
-        <v>61.43265182430272</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8461,10 +8461,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>89.35872216232903</v>
+        <v>89.92755417855443</v>
       </c>
       <c r="N8" t="n">
-        <v>83.98878642167108</v>
+        <v>84.56682273461456</v>
       </c>
       <c r="O8" t="n">
         <v>99.00804712831379</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>38.8718120156598</v>
+        <v>39.24815814245088</v>
       </c>
       <c r="M9" t="n">
-        <v>16.76619772104769</v>
+        <v>17.20537589991287</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>29.09636626239171</v>
+        <v>29.50876194646472</v>
       </c>
       <c r="P9" t="n">
-        <v>51.91261060228356</v>
+        <v>52.24359449619789</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8695,16 +8695,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>65.00895600402521</v>
+        <v>65.00895600402524</v>
       </c>
       <c r="M11" t="n">
-        <v>23.86371338847812</v>
+        <v>23.86371338847809</v>
       </c>
       <c r="N11" t="n">
-        <v>17.19178828862402</v>
+        <v>17.19178828862405</v>
       </c>
       <c r="O11" t="n">
-        <v>22.06748250983137</v>
+        <v>22.06748250983146</v>
       </c>
       <c r="P11" t="n">
         <v>83.66766412458549</v>
@@ -8771,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>40.20975561493427</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8932,16 +8932,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>50.30871316469408</v>
+        <v>79.27897249523153</v>
       </c>
       <c r="M14" t="n">
-        <v>23.86371338847812</v>
+        <v>38.13372987968438</v>
       </c>
       <c r="N14" t="n">
-        <v>17.19178828862402</v>
+        <v>31.46180477983035</v>
       </c>
       <c r="O14" t="n">
-        <v>36.7677253491625</v>
+        <v>35.76093267816073</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9008,10 +9008,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>40.20975561493427</v>
+        <v>40.20975561493429</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>13.69345016832928</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>64.00216333302332</v>
+        <v>95.39764593815653</v>
       </c>
       <c r="M17" t="n">
-        <v>38.13372987968438</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N17" t="n">
-        <v>31.46180477983029</v>
+        <v>47.58047822275535</v>
       </c>
       <c r="O17" t="n">
-        <v>51.03774184036877</v>
+        <v>51.22834658803821</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9248,7 +9248,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L18" t="n">
-        <v>13.69345016832925</v>
+        <v>30.99349195897977</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>14.28604556215212</v>
       </c>
       <c r="P18" t="n">
         <v>5.093443300258059</v>
@@ -9403,19 +9403,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L20" t="n">
-        <v>64.00216333302343</v>
+        <v>95.39764593815653</v>
       </c>
       <c r="M20" t="n">
-        <v>38.13372987968438</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N20" t="n">
-        <v>31.46180477983035</v>
+        <v>31.65240952749973</v>
       </c>
       <c r="O20" t="n">
-        <v>51.03774184036882</v>
+        <v>67.15641528329382</v>
       </c>
       <c r="P20" t="n">
         <v>83.66766412458549</v>
@@ -9482,10 +9482,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>40.20975561493429</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>13.69345016832931</v>
+        <v>16.72833151279569</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9646,13 +9646,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>76.73838061312765</v>
+        <v>84.60094559083478</v>
       </c>
       <c r="N23" t="n">
-        <v>62.52156992860511</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O23" t="n">
-        <v>89.64239257381206</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9719,19 +9719,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L24" t="n">
-        <v>44.67308831593662</v>
+        <v>58.28320261842308</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>30.34854226822537</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>7.862564977707166</v>
       </c>
       <c r="O24" t="n">
-        <v>38.60465073344326</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P24" t="n">
         <v>5.093443300258059</v>
@@ -9883,13 +9883,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>69.1934950284592</v>
+        <v>84.60094559083483</v>
       </c>
       <c r="N26" t="n">
-        <v>70.06645551327358</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O26" t="n">
-        <v>89.64239257381206</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9956,22 +9956,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L27" t="n">
-        <v>53.47946924949798</v>
+        <v>61.34203422720512</v>
       </c>
       <c r="M27" t="n">
-        <v>22.48597729051821</v>
+        <v>5.913409030945111</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>7.312292509363679</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>5.093443300258059</v>
+        <v>80.79952561761377</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10120,13 +10120,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>76.73838061312765</v>
+        <v>84.60094559083478</v>
       </c>
       <c r="N29" t="n">
-        <v>70.06645551327355</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O29" t="n">
-        <v>82.0975069891436</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10196,7 +10196,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L30" t="n">
-        <v>43.98542771806748</v>
+        <v>61.34203422720512</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>5.913409030945125</v>
       </c>
       <c r="P30" t="n">
-        <v>72.93696063990666</v>
+        <v>80.79952561761377</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10354,16 +10354,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L32" t="n">
-        <v>101.0470301984486</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>76.73838061312767</v>
+        <v>84.60094559083483</v>
       </c>
       <c r="N32" t="n">
-        <v>70.06645551327358</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O32" t="n">
-        <v>89.64239257381206</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P32" t="n">
         <v>83.66766412458549</v>
@@ -10430,22 +10430,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>53.47946924949798</v>
+        <v>61.34203422720512</v>
       </c>
       <c r="M33" t="n">
-        <v>22.48597729051821</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>35.86349851769987</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>5.093443300258059</v>
+        <v>27.81318637199739</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10591,16 +10591,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L35" t="n">
-        <v>86.68298210829809</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>61.76953049812857</v>
+        <v>69.63209547583577</v>
       </c>
       <c r="N35" t="n">
-        <v>55.09760539827448</v>
+        <v>62.96017037598168</v>
       </c>
       <c r="O35" t="n">
-        <v>74.67354245881296</v>
+        <v>68.17205934636965</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10667,19 +10667,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>40.20975561493427</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>38.51061913449894</v>
+        <v>46.3731841122061</v>
       </c>
       <c r="M36" t="n">
-        <v>5.380776984624262</v>
+        <v>15.37969215322633</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>23.63580061844422</v>
+        <v>0.493130003881614</v>
       </c>
       <c r="P36" t="n">
         <v>5.093443300258059</v>
@@ -10828,16 +10828,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>86.68298210829809</v>
+        <v>96.50732160017657</v>
       </c>
       <c r="M38" t="n">
-        <v>61.76953049812857</v>
+        <v>39.3891749090902</v>
       </c>
       <c r="N38" t="n">
-        <v>55.09760539827448</v>
+        <v>48.69015388477538</v>
       </c>
       <c r="O38" t="n">
-        <v>74.67354245881296</v>
+        <v>68.26609094531386</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10904,10 +10904,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L39" t="n">
-        <v>15.34019011078702</v>
+        <v>32.10316762099981</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>23.63580061844422</v>
+        <v>16.46056150590856</v>
       </c>
       <c r="P39" t="n">
         <v>5.093443300258059</v>
@@ -11065,16 +11065,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>88.64475662246943</v>
+        <v>80.38864815725151</v>
       </c>
       <c r="M41" t="n">
-        <v>31.84428932442177</v>
+        <v>39.24340554170442</v>
       </c>
       <c r="N41" t="n">
-        <v>40.82758890706828</v>
+        <v>32.57148044185033</v>
       </c>
       <c r="O41" t="n">
-        <v>60.40352596760675</v>
+        <v>36.82577295989702</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11141,10 +11141,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>68.76096162327045</v>
+        <v>56.07772172701996</v>
       </c>
       <c r="L42" t="n">
-        <v>3.49539689417654</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11302,16 +11302,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>88.64475662246943</v>
+        <v>80.38864815725151</v>
       </c>
       <c r="M44" t="n">
-        <v>47.49951400692234</v>
+        <v>39.24340554170442</v>
       </c>
       <c r="N44" t="n">
-        <v>40.82758890706825</v>
+        <v>32.57148044185033</v>
       </c>
       <c r="O44" t="n">
-        <v>44.74830128510615</v>
+        <v>36.82577295989702</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11378,10 +11378,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L45" t="n">
-        <v>3.49539689417654</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>5.093443300258059</v>
+        <v>20.96140941234376</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22576,7 +22576,7 @@
         <v>78.22308851520961</v>
       </c>
       <c r="L2" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22731,7 +22731,7 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K4" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L4" t="n">
         <v>71.46654840866277</v>
@@ -22740,13 +22740,13 @@
         <v>68.66533643318368</v>
       </c>
       <c r="N4" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O4" t="n">
         <v>80.66114959698193</v>
       </c>
       <c r="P4" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q4" t="n">
         <v>157.5243583765053</v>
@@ -22798,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.2737470230845</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H5" t="n">
-        <v>350.6140835793751</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I5" t="n">
-        <v>256.8767659283483</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J5" t="n">
-        <v>109.0803834875349</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K5" t="n">
-        <v>70.1431001954314</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L5" t="n">
-        <v>28.46690837553984</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>15.69943554118862</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P5" t="n">
-        <v>65.19990611497721</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q5" t="n">
-        <v>127.7557326813338</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5115853607867</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S5" t="n">
-        <v>237.39058621135</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T5" t="n">
-        <v>219.751531019005</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7962875726458</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0648199065884</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H6" t="n">
-        <v>138.2318363557987</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I6" t="n">
-        <v>118.6672449804954</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J6" t="n">
-        <v>86.16827628465229</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K6" t="n">
-        <v>19.09086850656466</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.19027346688259</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R6" t="n">
-        <v>157.4875420998046</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S6" t="n">
-        <v>208.9485043279264</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T6" t="n">
-        <v>230.2962397366888</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6528343106062</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2761771205436</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H7" t="n">
-        <v>167.9492261952894</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I7" t="n">
-        <v>168.9924431729352</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J7" t="n">
-        <v>135.2352521293023</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K7" t="n">
-        <v>92.32022377468076</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L7" t="n">
-        <v>67.23043024285242</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M7" t="n">
-        <v>64.19894377493078</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N7" t="n">
-        <v>51.70104732145143</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O7" t="n">
-        <v>76.63380673028146</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P7" t="n">
-        <v>94.90416527284395</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q7" t="n">
-        <v>155.1384659694319</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R7" t="n">
-        <v>222.9327412979576</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S7" t="n">
-        <v>244.4203898771245</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T7" t="n">
-        <v>218.265220041965</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2218597534797</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23035,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.180569077725</v>
+        <v>422.183808601427</v>
       </c>
       <c r="H8" t="n">
-        <v>349.6598249464623</v>
+        <v>349.6930017185746</v>
       </c>
       <c r="I8" t="n">
-        <v>253.2845231898766</v>
+        <v>253.4094149273949</v>
       </c>
       <c r="J8" t="n">
-        <v>101.17202184758</v>
+        <v>101.4469723723761</v>
       </c>
       <c r="K8" t="n">
-        <v>58.29051612840928</v>
+        <v>58.70259569150787</v>
       </c>
       <c r="L8" t="n">
-        <v>13.76272976322227</v>
+        <v>14.27395089981357</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.5458232991324792</v>
       </c>
       <c r="P8" t="n">
-        <v>51.80080109985099</v>
+        <v>52.26664865759224</v>
       </c>
       <c r="Q8" t="n">
-        <v>117.6935628343943</v>
+        <v>118.0433949495604</v>
       </c>
       <c r="R8" t="n">
-        <v>209.6584962505987</v>
+        <v>209.8619909813397</v>
       </c>
       <c r="S8" t="n">
-        <v>235.2672937814706</v>
+        <v>235.3411144278282</v>
       </c>
       <c r="T8" t="n">
-        <v>219.3436445631938</v>
+        <v>219.357825578199</v>
       </c>
       <c r="U8" t="n">
-        <v>248.788833337017</v>
+        <v>248.7890924989132</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.0149653106349</v>
+        <v>161.0166986086232</v>
       </c>
       <c r="H9" t="n">
-        <v>137.7503459159327</v>
+        <v>137.7670859254508</v>
       </c>
       <c r="I9" t="n">
-        <v>116.9507599882392</v>
+        <v>117.0104371338873</v>
       </c>
       <c r="J9" t="n">
-        <v>81.45811026959613</v>
+        <v>81.62186891856506</v>
       </c>
       <c r="K9" t="n">
-        <v>11.04044456262879</v>
+        <v>11.32033417681052</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>53.82637802552915</v>
+        <v>54.04763199329255</v>
       </c>
       <c r="R9" t="n">
-        <v>154.3921839405207</v>
+        <v>154.4998004594754</v>
       </c>
       <c r="S9" t="n">
-        <v>208.0224770741423</v>
+        <v>208.0546723240557</v>
       </c>
       <c r="T9" t="n">
-        <v>230.0952907293151</v>
+        <v>230.1022771365572</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6495544029776</v>
+        <v>249.64966843574</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.2343807020206</v>
+        <v>169.2358338408287</v>
       </c>
       <c r="H10" t="n">
-        <v>167.5776180378764</v>
+        <v>167.5905377629157</v>
       </c>
       <c r="I10" t="n">
-        <v>167.7355108777182</v>
+        <v>167.7792107247836</v>
       </c>
       <c r="J10" t="n">
-        <v>132.2802453397308</v>
+        <v>132.3829822534632</v>
       </c>
       <c r="K10" t="n">
-        <v>87.46423987719797</v>
+        <v>87.63306818599318</v>
       </c>
       <c r="L10" t="n">
-        <v>61.01644271081538</v>
+        <v>61.23248482052092</v>
       </c>
       <c r="M10" t="n">
-        <v>57.6471651877402</v>
+        <v>57.87495130108573</v>
       </c>
       <c r="N10" t="n">
-        <v>45.30505538511905</v>
+        <v>45.5274252538162</v>
       </c>
       <c r="O10" t="n">
-        <v>70.7260729557852</v>
+        <v>70.93146752113323</v>
       </c>
       <c r="P10" t="n">
-        <v>89.84907843621555</v>
+        <v>90.02482896987843</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.6385858692978</v>
+        <v>151.7602664289466</v>
       </c>
       <c r="R10" t="n">
-        <v>221.05342233419</v>
+        <v>221.1187607391431</v>
       </c>
       <c r="S10" t="n">
-        <v>243.6919922925021</v>
+        <v>243.7173165388214</v>
       </c>
       <c r="T10" t="n">
-        <v>218.0866353446397</v>
+        <v>218.0928442104561</v>
       </c>
       <c r="U10" t="n">
-        <v>291.219579948833</v>
+        <v>291.2196592109498</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23269,19 +23269,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>385.9618543920779</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>406.7534736977207</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H11" t="n">
-        <v>329.9979705112284</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I11" t="n">
         <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.2082294730605</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R11" t="n">
-        <v>180.8732471227138</v>
+        <v>165.9043970077148</v>
       </c>
       <c r="S11" t="n">
-        <v>224.8250298051639</v>
+        <v>211.6404666238728</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3376759156334</v>
+        <v>202.3688258006344</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7521737158166</v>
+        <v>233.7833236008176</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23326,7 +23326,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y11" t="n">
-        <v>362.9601262801831</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="12">
@@ -23351,7 +23351,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>147.5852192972233</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H12" t="n">
         <v>135.3823959320322</v>
@@ -23360,7 +23360,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J12" t="n">
-        <v>58.29370945070387</v>
+        <v>43.32485933570487</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.560154463009539</v>
+        <v>7.560154463009585</v>
       </c>
       <c r="R12" t="n">
-        <v>124.2004909680759</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S12" t="n">
         <v>203.4683135038341</v>
@@ -23402,7 +23402,7 @@
         <v>268.2804066479321</v>
       </c>
       <c r="X12" t="n">
-        <v>230.033063710963</v>
+        <v>216.8485005296718</v>
       </c>
       <c r="Y12" t="n">
         <v>242.8962664135933</v>
@@ -23442,22 +23442,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K13" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L13" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M13" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N13" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O13" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P13" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q13" t="n">
         <v>134.42632090912</v>
@@ -23497,10 +23497,10 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C14" t="n">
-        <v>333.5971194742085</v>
+        <v>307.8435257674628</v>
       </c>
       <c r="D14" t="n">
-        <v>319.1317556432476</v>
+        <v>289.8928890370423</v>
       </c>
       <c r="E14" t="n">
         <v>359.9585549362873</v>
@@ -23509,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>406.7534736977207</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H14" t="n">
-        <v>344.9668206262274</v>
+        <v>315.7279540200221</v>
       </c>
       <c r="I14" t="n">
         <v>235.6180226107624</v>
       </c>
       <c r="J14" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>55.02366629176935</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R14" t="n">
-        <v>165.9043970077147</v>
+        <v>151.6343805165085</v>
       </c>
       <c r="S14" t="n">
         <v>224.8250298051639</v>
@@ -23551,7 +23551,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U14" t="n">
-        <v>233.7833236008175</v>
+        <v>248.7521737158166</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23576,7 +23576,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C15" t="n">
-        <v>190.6578644339482</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D15" t="n">
         <v>172.0989423795122</v>
@@ -23585,10 +23585,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F15" t="n">
-        <v>173.9843481253239</v>
+        <v>148.2307544185783</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7697824785144</v>
+        <v>131.5309158723091</v>
       </c>
       <c r="H15" t="n">
         <v>135.3823959320322</v>
@@ -23597,7 +23597,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J15" t="n">
-        <v>58.29370945070387</v>
+        <v>29.05484284449858</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,10 +23618,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.52900457800858</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R15" t="n">
-        <v>124.2004909680759</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S15" t="n">
         <v>203.4683135038341</v>
@@ -23630,13 +23630,13 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U15" t="n">
-        <v>234.664573838497</v>
+        <v>220.3945573472907</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W15" t="n">
-        <v>268.2804066479321</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
@@ -23679,22 +23679,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K16" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L16" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M16" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N16" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O16" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P16" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q16" t="n">
         <v>134.42632090912</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.3174609908579</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
         <v>333.5971194742085</v>
@@ -23740,7 +23740,7 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E17" t="n">
-        <v>330.719688330082</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F17" t="n">
         <v>399.146417573369</v>
@@ -23749,7 +23749,7 @@
         <v>421.7223238127198</v>
       </c>
       <c r="H17" t="n">
-        <v>315.7279540200221</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I17" t="n">
         <v>235.6180226107624</v>
@@ -23776,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>42.45463576631487</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R17" t="n">
         <v>180.8732471227138</v>
       </c>
       <c r="S17" t="n">
-        <v>224.8250298051639</v>
+        <v>184.8741085298899</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3376759156334</v>
+        <v>171.980135866503</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7521737158166</v>
+        <v>203.3946336666862</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>280.034185430163</v>
       </c>
       <c r="X17" t="n">
         <v>348.8168793035129</v>
@@ -23819,7 +23819,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E18" t="n">
-        <v>187.4605452976028</v>
+        <v>142.1030052484725</v>
       </c>
       <c r="F18" t="n">
         <v>173.9843481253239</v>
@@ -23831,7 +23831,7 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I18" t="n">
-        <v>108.5091580928627</v>
+        <v>91.08724139559729</v>
       </c>
       <c r="J18" t="n">
         <v>58.29370945070387</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>109.9304744768696</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S18" t="n">
-        <v>174.2294468976288</v>
+        <v>158.1107734547038</v>
       </c>
       <c r="T18" t="n">
-        <v>199.8681652515365</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U18" t="n">
-        <v>246.408834824759</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>237.8917167138007</v>
       </c>
       <c r="X18" t="n">
         <v>230.033063710963</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.3174609908579</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
         <v>333.5971194742085</v>
@@ -23980,19 +23980,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
-        <v>399.146417573369</v>
+        <v>353.7888775242387</v>
       </c>
       <c r="G20" t="n">
-        <v>392.4834572065145</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H20" t="n">
         <v>344.9668206262274</v>
       </c>
       <c r="I20" t="n">
-        <v>235.6180226107624</v>
+        <v>190.260482561632</v>
       </c>
       <c r="J20" t="n">
-        <v>62.27902778684216</v>
+        <v>16.92148773771177</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>42.4546357663149</v>
+        <v>28.25730819778649</v>
       </c>
       <c r="R20" t="n">
         <v>180.8732471227138</v>
@@ -24037,7 +24037,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y20" t="n">
-        <v>348.6901097889768</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>158.7738907748291</v>
+        <v>142.6552173319041</v>
       </c>
       <c r="C21" t="n">
-        <v>174.6035610090341</v>
+        <v>158.484887566109</v>
       </c>
       <c r="D21" t="n">
-        <v>172.0989423795122</v>
+        <v>126.7414023303818</v>
       </c>
       <c r="E21" t="n">
         <v>187.4605452976028</v>
@@ -24071,7 +24071,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J21" t="n">
-        <v>58.29370945070389</v>
+        <v>40.87179275343846</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S21" t="n">
         <v>203.4683135038341</v>
@@ -24104,7 +24104,7 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U21" t="n">
-        <v>246.408834824759</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24113,7 +24113,7 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X21" t="n">
-        <v>200.7941971047577</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
         <v>242.8962664135933</v>
@@ -24153,22 +24153,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K22" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L22" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M22" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N22" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O22" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P22" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q22" t="n">
         <v>134.42632090912</v>
@@ -24214,22 +24214,22 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E23" t="n">
-        <v>292.1150375966388</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>331.3029002337205</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>353.8788064730712</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H23" t="n">
-        <v>344.9668206262274</v>
+        <v>269.2607383088717</v>
       </c>
       <c r="I23" t="n">
         <v>235.6180226107624</v>
       </c>
       <c r="J23" t="n">
-        <v>62.27902778684214</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.451659400298055</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>180.8732471227138</v>
+        <v>105.1671648053581</v>
       </c>
       <c r="S23" t="n">
         <v>224.8250298051639</v>
@@ -24262,7 +24262,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7521737158166</v>
+        <v>236.8514313532366</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>120.1692400413859</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
-        <v>135.9989102755908</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E24" t="n">
-        <v>150.232979802849</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F24" t="n">
         <v>173.9843481253239</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R24" t="n">
         <v>139.1693410830749</v>
@@ -24341,19 +24341,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U24" t="n">
-        <v>249.633423953496</v>
+        <v>182.9515066483691</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>173.5938428628167</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>207.5431744455754</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.0527490739448</v>
+        <v>167.1901840962376</v>
       </c>
     </row>
     <row r="25">
@@ -24457,7 +24457,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>353.8788064730712</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H26" t="n">
         <v>344.9668206262274</v>
@@ -24466,7 +24466,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J26" t="n">
-        <v>62.27902778684214</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.451659400298055</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>180.8732471227138</v>
@@ -24502,13 +24502,13 @@
         <v>248.7521737158166</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>237.5983596836674</v>
       </c>
       <c r="W26" t="n">
-        <v>257.5482081396448</v>
+        <v>249.6856431619377</v>
       </c>
       <c r="X26" t="n">
-        <v>280.9733619638644</v>
+        <v>336.9161369409329</v>
       </c>
       <c r="Y26" t="n">
         <v>377.9289763951821</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.0127573810344</v>
+        <v>143.8598446539161</v>
       </c>
       <c r="C27" t="n">
         <v>203.8424276152394</v>
@@ -24566,13 +24566,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>79.41277101031248</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S27" t="n">
-        <v>135.6247961641856</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T27" t="n">
         <v>229.1070318577418</v>
@@ -24584,13 +24584,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>215.4057394232825</v>
+        <v>207.5431744455754</v>
       </c>
       <c r="X27" t="n">
-        <v>230.033063710963</v>
+        <v>154.3269813936073</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.0527490739448</v>
+        <v>167.1901840962376</v>
       </c>
     </row>
     <row r="28">
@@ -24682,19 +24682,19 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>333.5971194742085</v>
+        <v>266.9152021690816</v>
       </c>
       <c r="D29" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
-        <v>292.1150375966388</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>331.3029002337205</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>353.8788064730712</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H29" t="n">
         <v>344.9668206262274</v>
@@ -24730,16 +24730,16 @@
         <v>180.8732471227138</v>
       </c>
       <c r="S29" t="n">
-        <v>165.0684597324015</v>
+        <v>224.8250298051639</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3376759156334</v>
+        <v>141.6315935982777</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7521737158166</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>237.5983596836674</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
@@ -24767,16 +24767,16 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E30" t="n">
-        <v>150.232979802849</v>
+        <v>111.7544629802471</v>
       </c>
       <c r="F30" t="n">
-        <v>173.9843481253239</v>
+        <v>98.27826580796821</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7697824785144</v>
+        <v>85.06370016115872</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3823959320322</v>
+        <v>68.70047862690531</v>
       </c>
       <c r="I30" t="n">
         <v>108.5091580928627</v>
@@ -24803,22 +24803,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R30" t="n">
         <v>139.1693410830749</v>
       </c>
       <c r="S30" t="n">
-        <v>135.6247961641856</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T30" t="n">
-        <v>161.2635145180932</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U30" t="n">
         <v>249.633423953496</v>
       </c>
       <c r="V30" t="n">
-        <v>181.4564078405238</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
         <v>283.2492567629311</v>
@@ -24916,31 +24916,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>296.7128102574146</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C32" t="n">
-        <v>265.7536021345599</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D32" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>292.1150375966388</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>339.3898475006066</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7223238127198</v>
+        <v>409.8215814501398</v>
       </c>
       <c r="H32" t="n">
-        <v>344.9668206262274</v>
+        <v>269.2607383088717</v>
       </c>
       <c r="I32" t="n">
-        <v>235.6180226107624</v>
+        <v>159.9119402934066</v>
       </c>
       <c r="J32" t="n">
-        <v>62.27902778684214</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>68.2082294730605</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>180.8732471227138</v>
@@ -25001,25 +25001,25 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D33" t="n">
-        <v>104.2554250398636</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
-        <v>119.6170279579543</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F33" t="n">
-        <v>106.1408307856753</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
         <v>160.7697824785144</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3823959320322</v>
+        <v>59.6763136146765</v>
       </c>
       <c r="I33" t="n">
-        <v>108.5091580928627</v>
+        <v>32.803075775507</v>
       </c>
       <c r="J33" t="n">
-        <v>58.29370945070387</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,10 +25040,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>14.14079672358552</v>
       </c>
       <c r="R33" t="n">
-        <v>139.1693410830749</v>
+        <v>63.46325876571922</v>
       </c>
       <c r="S33" t="n">
         <v>203.4683135038341</v>
@@ -25052,7 +25052,7 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U33" t="n">
-        <v>212.4058584587422</v>
+        <v>249.633423953496</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25159,19 +25159,19 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1317556432476</v>
+        <v>258.3945234408909</v>
       </c>
       <c r="E35" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
-        <v>346.2717503487195</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>368.8476565880702</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H35" t="n">
-        <v>292.0921534015779</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I35" t="n">
         <v>235.6180226107624</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.63622258158922</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R35" t="n">
         <v>180.8732471227138</v>
@@ -25210,13 +25210,13 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7521737158166</v>
+        <v>195.2548195919808</v>
       </c>
       <c r="V35" t="n">
-        <v>313.3044420010231</v>
+        <v>252.5672097986664</v>
       </c>
       <c r="W35" t="n">
-        <v>325.3917254792934</v>
+        <v>264.6544932769367</v>
       </c>
       <c r="X35" t="n">
         <v>348.8168793035129</v>
@@ -25247,7 +25247,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7697824785144</v>
+        <v>100.0325502761577</v>
       </c>
       <c r="H36" t="n">
         <v>135.3823959320322</v>
@@ -25283,19 +25283,19 @@
         <v>139.1693410830749</v>
       </c>
       <c r="S36" t="n">
-        <v>179.4253111903714</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T36" t="n">
-        <v>176.2323646330922</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U36" t="n">
-        <v>196.7587567288465</v>
+        <v>188.8961917511393</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>218.3315756343452</v>
       </c>
       <c r="W36" t="n">
-        <v>230.3745895382816</v>
+        <v>222.5120245605744</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>364.5563275970632</v>
+        <v>323.6280039986819</v>
       </c>
       <c r="C38" t="n">
-        <v>287.0251125827372</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
-        <v>266.2570884185981</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>307.0838877116378</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
         <v>399.146417573369</v>
@@ -25447,7 +25447,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7521737158166</v>
+        <v>202.2849580046662</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25456,10 +25456,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>295.9422120788633</v>
+        <v>302.3496635923625</v>
       </c>
       <c r="Y38" t="n">
-        <v>377.9289763951821</v>
+        <v>331.4617606840317</v>
       </c>
     </row>
     <row r="39">
@@ -25478,7 +25478,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>140.8885384061315</v>
+        <v>140.9933295864524</v>
       </c>
       <c r="F39" t="n">
         <v>173.9843481253239</v>
@@ -25490,7 +25490,7 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I39" t="n">
-        <v>108.5091580928627</v>
+        <v>62.0419423817123</v>
       </c>
       <c r="J39" t="n">
         <v>58.29370945070387</v>
@@ -25520,19 +25520,19 @@
         <v>139.1693410830749</v>
       </c>
       <c r="S39" t="n">
-        <v>203.4683135038341</v>
+        <v>157.0010977926837</v>
       </c>
       <c r="T39" t="n">
         <v>229.1070318577418</v>
       </c>
       <c r="U39" t="n">
-        <v>196.7587567288465</v>
+        <v>208.7051003551148</v>
       </c>
       <c r="V39" t="n">
-        <v>196.4252579555229</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
-        <v>230.3745895382816</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>325.9516768636199</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>294.9924687407652</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1287792772308</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E41" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>399.146417573369</v>
+        <v>372.4154215435162</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7223238127198</v>
+        <v>391.3737815444944</v>
       </c>
       <c r="H41" t="n">
         <v>344.9668206262274</v>
@@ -25681,16 +25681,16 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3376759156334</v>
+        <v>186.9891336474081</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7521737158166</v>
+        <v>218.4036314475912</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
-        <v>286.7870747458501</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>149.4081066475912</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>165.2377768817961</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
         <v>172.0989423795122</v>
@@ -25721,13 +25721,13 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7697824785144</v>
+        <v>130.4212402102891</v>
       </c>
       <c r="H42" t="n">
         <v>135.3823959320322</v>
       </c>
       <c r="I42" t="n">
-        <v>108.5091580928627</v>
+        <v>78.16061582463736</v>
       </c>
       <c r="J42" t="n">
         <v>58.29370945070387</v>
@@ -25766,16 +25766,16 @@
         <v>249.633423953496</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>222.5689291503195</v>
       </c>
       <c r="W42" t="n">
-        <v>249.2462803969143</v>
+        <v>252.9007144947058</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>204.2916156801501</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25879,7 +25879,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>387.719347446703</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H44" t="n">
         <v>344.9668206262274</v>
@@ -25918,19 +25918,19 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T44" t="n">
-        <v>178.7330251821901</v>
+        <v>217.3376759156334</v>
       </c>
       <c r="U44" t="n">
-        <v>210.1475229823733</v>
+        <v>218.4036314475912</v>
       </c>
       <c r="V44" t="n">
-        <v>274.6997912675798</v>
+        <v>282.9558997327978</v>
       </c>
       <c r="W44" t="n">
-        <v>325.3917254792934</v>
+        <v>295.043183211068</v>
       </c>
       <c r="X44" t="n">
-        <v>348.8168793035129</v>
+        <v>322.08588327366</v>
       </c>
       <c r="Y44" t="n">
         <v>377.9289763951821</v>
@@ -25946,10 +25946,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C45" t="n">
-        <v>165.2377768817961</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D45" t="n">
-        <v>133.4942916460689</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E45" t="n">
         <v>187.4605452976028</v>
@@ -25958,13 +25958,13 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7697824785144</v>
+        <v>130.4212402102891</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3823959320322</v>
+        <v>105.0338536638069</v>
       </c>
       <c r="I45" t="n">
-        <v>108.5091580928627</v>
+        <v>81.77816206300983</v>
       </c>
       <c r="J45" t="n">
         <v>58.29370945070387</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R45" t="n">
         <v>139.1693410830749</v>
@@ -26000,16 +26000,16 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U45" t="n">
-        <v>249.633423953496</v>
+        <v>219.2848816852707</v>
       </c>
       <c r="V45" t="n">
-        <v>210.6952744467291</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X45" t="n">
-        <v>218.5590919229547</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
         <v>242.8962664135933</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>364003.7063517172</v>
+        <v>357040.9859448344</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>374256.2440523116</v>
+        <v>373896.8445244257</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416483.8101394508</v>
+        <v>426071.7330325027</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>426071.7330325026</v>
+        <v>437055.5275674014</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>426071.7330325026</v>
+        <v>437055.5275674014</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>452592.7287095831</v>
+        <v>458100.5569750328</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>452592.7287095829</v>
+        <v>458100.5569750328</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>452592.7287095831</v>
+        <v>458100.556975033</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>452592.7287095831</v>
+        <v>458100.5569750327</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>442249.6587998763</v>
+        <v>447682.4781954388</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>442249.6587998763</v>
+        <v>437822.2833877348</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>432453.886556244</v>
+        <v>426827.9025470203</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>432453.8865562438</v>
+        <v>426827.9025470203</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>135554.9727302926</v>
       </c>
       <c r="C2" t="n">
-        <v>138651.535323041</v>
+        <v>135554.9727302926</v>
       </c>
       <c r="D2" t="n">
-        <v>143193.9018459611</v>
+        <v>143035.9770928765</v>
       </c>
       <c r="E2" t="n">
-        <v>162507.0584704471</v>
+        <v>162507.058470447</v>
       </c>
       <c r="F2" t="n">
-        <v>162507.0584704471</v>
+        <v>165885.1823503905</v>
       </c>
       <c r="G2" t="n">
-        <v>165885.1823503905</v>
+        <v>169700.936572126</v>
       </c>
       <c r="H2" t="n">
-        <v>165885.1823503904</v>
+        <v>169700.936572126</v>
       </c>
       <c r="I2" t="n">
-        <v>175024.0149929376</v>
+        <v>176885.3105650322</v>
       </c>
       <c r="J2" t="n">
-        <v>175024.0149929377</v>
+        <v>176885.3105650322</v>
       </c>
       <c r="K2" t="n">
-        <v>175024.0149929376</v>
+        <v>176885.3105650322</v>
       </c>
       <c r="L2" t="n">
-        <v>175024.0149929376</v>
+        <v>176885.3105650322</v>
       </c>
       <c r="M2" t="n">
-        <v>171480.4570678341</v>
+        <v>173341.7526399287</v>
       </c>
       <c r="N2" t="n">
-        <v>171480.4570678341</v>
+        <v>169963.6287599853</v>
       </c>
       <c r="O2" t="n">
-        <v>168102.3331878906</v>
+        <v>166147.8745382497</v>
       </c>
       <c r="P2" t="n">
-        <v>168102.3331878906</v>
+        <v>166147.8745382497</v>
       </c>
     </row>
     <row r="3">
@@ -26368,25 +26368,25 @@
         <v>300331.6078316385</v>
       </c>
       <c r="C3" t="n">
-        <v>14388.06885871457</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19849.97560315403</v>
+        <v>32691.71550448027</v>
       </c>
       <c r="E3" t="n">
-        <v>96048.07996408457</v>
+        <v>96695.48742543285</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4088.730745159375</v>
       </c>
       <c r="G3" t="n">
-        <v>3911.197469992269</v>
+        <v>4417.886610604115</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10265.78732768797</v>
+        <v>8070.314708508751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18153.55411910295</v>
+        <v>18153.55411910296</v>
       </c>
       <c r="C4" t="n">
-        <v>17374.8680441146</v>
+        <v>18153.55411910296</v>
       </c>
       <c r="D4" t="n">
-        <v>16271.48943740879</v>
+        <v>16306.90179223417</v>
       </c>
       <c r="E4" t="n">
         <v>10227.01048284707</v>
       </c>
       <c r="F4" t="n">
-        <v>10227.01048284707</v>
+        <v>11379.9638164747</v>
       </c>
       <c r="G4" t="n">
-        <v>11379.9638164747</v>
+        <v>12836.05248550038</v>
       </c>
       <c r="H4" t="n">
-        <v>11379.9638164747</v>
+        <v>12836.05248550038</v>
       </c>
       <c r="I4" t="n">
-        <v>15081.85105107616</v>
+        <v>15942.13764852425</v>
       </c>
       <c r="J4" t="n">
-        <v>15081.85105107616</v>
+        <v>15942.13764852424</v>
       </c>
       <c r="K4" t="n">
-        <v>15081.85105107616</v>
+        <v>15942.13764852424</v>
       </c>
       <c r="L4" t="n">
-        <v>15081.85105107616</v>
+        <v>15942.13764852424</v>
       </c>
       <c r="M4" t="n">
-        <v>13586.82943461481</v>
+        <v>14372.10716217557</v>
       </c>
       <c r="N4" t="n">
-        <v>13586.82943461481</v>
+        <v>12946.88191389573</v>
       </c>
       <c r="O4" t="n">
-        <v>12226.02675040662</v>
+        <v>11480.20693905438</v>
       </c>
       <c r="P4" t="n">
-        <v>12226.02675040662</v>
+        <v>11480.20693905438</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>40422.05903150925</v>
       </c>
       <c r="C5" t="n">
-        <v>40766.51237239799</v>
+        <v>40422.05903150925</v>
       </c>
       <c r="D5" t="n">
-        <v>41271.79307559616</v>
+        <v>41254.22594844156</v>
       </c>
       <c r="E5" t="n">
         <v>11039.24867339523</v>
       </c>
       <c r="F5" t="n">
-        <v>11039.24867339523</v>
+        <v>11906.86567606057</v>
       </c>
       <c r="G5" t="n">
-        <v>11906.86567606057</v>
+        <v>12886.88102139042</v>
       </c>
       <c r="H5" t="n">
-        <v>11906.86567606057</v>
+        <v>12886.88102139042</v>
       </c>
       <c r="I5" t="n">
-        <v>14254.02844065392</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="J5" t="n">
-        <v>14254.02844065392</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="K5" t="n">
-        <v>14254.02844065392</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="L5" t="n">
-        <v>14254.02844065392</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="M5" t="n">
-        <v>13343.92235366198</v>
+        <v>13821.96630430658</v>
       </c>
       <c r="N5" t="n">
-        <v>13343.92235366198</v>
+        <v>12954.34930164123</v>
       </c>
       <c r="O5" t="n">
-        <v>12476.30535099664</v>
+        <v>11974.33395631139</v>
       </c>
       <c r="P5" t="n">
-        <v>12476.30535099664</v>
+        <v>11974.33395631139</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-223352.2482519581</v>
+        <v>-240394.6359398735</v>
       </c>
       <c r="C6" t="n">
-        <v>66122.08604781381</v>
+        <v>59936.97189176508</v>
       </c>
       <c r="D6" t="n">
-        <v>65800.64372980216</v>
+        <v>36114.79637793436</v>
       </c>
       <c r="E6" t="n">
-        <v>45192.71935012021</v>
+        <v>28850.52848786421</v>
       </c>
       <c r="F6" t="n">
-        <v>141240.7993142048</v>
+        <v>122983.7449057853</v>
       </c>
       <c r="G6" t="n">
-        <v>138687.155387863</v>
+        <v>124225.0269588074</v>
       </c>
       <c r="H6" t="n">
-        <v>142598.3528578551</v>
+        <v>128642.9135694115</v>
       </c>
       <c r="I6" t="n">
-        <v>135422.3481735195</v>
+        <v>123164.9150205223</v>
       </c>
       <c r="J6" t="n">
-        <v>145688.1355012076</v>
+        <v>131235.2297290311</v>
       </c>
       <c r="K6" t="n">
-        <v>145688.1355012075</v>
+        <v>131235.229729031</v>
       </c>
       <c r="L6" t="n">
-        <v>145688.1355012076</v>
+        <v>131235.2297290311</v>
       </c>
       <c r="M6" t="n">
-        <v>144549.7052795573</v>
+        <v>129994.630481013</v>
       </c>
       <c r="N6" t="n">
-        <v>144549.7052795573</v>
+        <v>128740.4426580176</v>
       </c>
       <c r="O6" t="n">
-        <v>143400.0010864874</v>
+        <v>127180.5910453665</v>
       </c>
       <c r="P6" t="n">
-        <v>143400.0010864874</v>
+        <v>127180.5910453665</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>327.4730446054127</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="D3" t="n">
-        <v>350.6510585135856</v>
+        <v>349.8452269927321</v>
       </c>
       <c r="E3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
       <c r="F3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
       <c r="G3" t="n">
         <v>464.6395681836371</v>
       </c>
       <c r="H3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="I3" t="n">
         <v>464.6395681836371</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="F4" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="G4" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="H4" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="I4" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="J4" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="K4" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="L4" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M4" t="n">
-        <v>52.87466722464953</v>
+        <v>60.73723220235669</v>
       </c>
       <c r="N4" t="n">
-        <v>52.87466722464953</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="O4" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="P4" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>15.80061196737386</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.17801390817295</v>
+        <v>38.17279435469326</v>
       </c>
       <c r="E3" t="n">
-        <v>113.9885096700515</v>
+        <v>114.794341190905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>14.2700164912063</v>
       </c>
       <c r="G4" t="n">
-        <v>14.27001649120626</v>
+        <v>16.11867344292506</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>14.2700164912063</v>
       </c>
       <c r="O4" t="n">
-        <v>14.27001649120626</v>
+        <v>16.11867344292506</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31080,7 +31080,7 @@
         <v>28.5517007386505</v>
       </c>
       <c r="T2" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U2" t="n">
         <v>0.1002363602453993</v>
@@ -31123,7 +31123,7 @@
         <v>0.6703897607686119</v>
       </c>
       <c r="H3" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I3" t="n">
         <v>23.08140185102458</v>
@@ -31138,7 +31138,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M3" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N3" t="n">
         <v>174.3572036132365</v>
@@ -31208,10 +31208,10 @@
         <v>16.9018427404366</v>
       </c>
       <c r="J4" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K4" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L4" t="n">
         <v>83.55886825184406</v>
@@ -31220,13 +31220,13 @@
         <v>88.10111075373283</v>
       </c>
       <c r="N4" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O4" t="n">
         <v>79.44070463370868</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q4" t="n">
         <v>47.06253732834386</v>
@@ -31235,7 +31235,7 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S4" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T4" t="n">
         <v>2.40141054655538</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.316474551177537</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H5" t="n">
-        <v>13.48234499724696</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I5" t="n">
-        <v>50.75338513427206</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J5" t="n">
-        <v>111.7341319380046</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K5" t="n">
-        <v>167.4604996893498</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L5" t="n">
-        <v>207.7495577349494</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M5" t="n">
-        <v>231.1614120344529</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N5" t="n">
-        <v>234.9018453529861</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O5" t="n">
-        <v>221.8111515347145</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P5" t="n">
-        <v>189.310686052519</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q5" t="n">
-        <v>142.1644411884734</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R5" t="n">
-        <v>82.69599452540605</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S5" t="n">
-        <v>29.99916383495816</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T5" t="n">
-        <v>5.762867347779673</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U5" t="n">
-        <v>0.105317964094203</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7043759827361706</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H6" t="n">
-        <v>6.802789096425649</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I6" t="n">
-        <v>24.25154151087255</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J6" t="n">
-        <v>66.54808352684147</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K6" t="n">
-        <v>113.7412743701649</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L6" t="n">
-        <v>152.9391799357637</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M6" t="n">
-        <v>178.4728093099499</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N6" t="n">
-        <v>183.1964535099657</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O6" t="n">
-        <v>167.5889646293379</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P6" t="n">
-        <v>134.5049190191553</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q6" t="n">
-        <v>89.91297632260313</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R6" t="n">
-        <v>43.73309829654928</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S6" t="n">
-        <v>13.08347494248983</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T6" t="n">
-        <v>2.83912950936202</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04634052518001125</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5905251624032031</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H7" t="n">
-        <v>5.25030553482121</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I7" t="n">
-        <v>17.75870215663451</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J7" t="n">
-        <v>41.75012898190646</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K7" t="n">
-        <v>68.60828705011758</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L7" t="n">
-        <v>87.79498641765441</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M7" t="n">
-        <v>92.56750341198573</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N7" t="n">
-        <v>90.36645507939204</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O7" t="n">
-        <v>83.46804750040914</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P7" t="n">
-        <v>71.42133418738374</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.44842973541731</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R7" t="n">
-        <v>26.55215866587493</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S7" t="n">
-        <v>10.29124305751764</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T7" t="n">
-        <v>2.523152966631867</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03221046340381112</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.409652496537027</v>
+        <v>1.406412972835103</v>
       </c>
       <c r="H8" t="n">
-        <v>14.43660363015983</v>
+        <v>14.4034268580475</v>
       </c>
       <c r="I8" t="n">
-        <v>54.34562787274376</v>
+        <v>54.22073613522535</v>
       </c>
       <c r="J8" t="n">
-        <v>119.6424935779595</v>
+        <v>119.3675430531634</v>
       </c>
       <c r="K8" t="n">
-        <v>179.3130837563719</v>
+        <v>178.9010041932733</v>
       </c>
       <c r="L8" t="n">
-        <v>222.453736347267</v>
+        <v>221.9425152106757</v>
       </c>
       <c r="M8" t="n">
-        <v>247.5226439325573</v>
+        <v>246.9538119163319</v>
       </c>
       <c r="N8" t="n">
-        <v>251.5278190883432</v>
+        <v>250.9497827753997</v>
       </c>
       <c r="O8" t="n">
-        <v>237.5105870759031</v>
+        <v>236.9647637767706</v>
       </c>
       <c r="P8" t="n">
-        <v>202.7097910676452</v>
+        <v>202.243943509904</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.2266110354129</v>
+        <v>151.8767789202468</v>
       </c>
       <c r="R8" t="n">
-        <v>88.54908363559406</v>
+        <v>88.3455889048531</v>
       </c>
       <c r="S8" t="n">
-        <v>32.12245626483752</v>
+        <v>32.04863561847993</v>
       </c>
       <c r="T8" t="n">
-        <v>6.170753803590836</v>
+        <v>6.156572788585666</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1125130378268082</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.7524972807013482</v>
       </c>
       <c r="H9" t="n">
-        <v>7.284279536291656</v>
+        <v>7.267539526773549</v>
       </c>
       <c r="I9" t="n">
-        <v>25.96802650312875</v>
+        <v>25.90834935748063</v>
       </c>
       <c r="J9" t="n">
-        <v>71.25824954189763</v>
+        <v>71.0944908929287</v>
       </c>
       <c r="K9" t="n">
-        <v>121.7916983141008</v>
+        <v>121.511808699919</v>
       </c>
       <c r="L9" t="n">
-        <v>163.7639684124062</v>
+        <v>163.3876222856151</v>
       </c>
       <c r="M9" t="n">
-        <v>191.1048268899041</v>
+        <v>190.665648711039</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>179.4506412376083</v>
+        <v>179.0382455535353</v>
       </c>
       <c r="P9" t="n">
-        <v>144.0249602411744</v>
+        <v>143.6939763472601</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.27687176395656</v>
+        <v>96.05561779619316</v>
       </c>
       <c r="R9" t="n">
-        <v>46.82845645583321</v>
+        <v>46.72083993687846</v>
       </c>
       <c r="S9" t="n">
-        <v>14.00950219627391</v>
+        <v>13.97730694636056</v>
       </c>
       <c r="T9" t="n">
-        <v>3.040078516735708</v>
+        <v>3.033092109493591</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04962043280852629</v>
+        <v>0.04950640004614135</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6323215809261379</v>
+        <v>0.6308684421180414</v>
       </c>
       <c r="H10" t="n">
-        <v>5.621913692234211</v>
+        <v>5.608993967194954</v>
       </c>
       <c r="I10" t="n">
-        <v>19.0156344518515</v>
+        <v>18.9719346047862</v>
       </c>
       <c r="J10" t="n">
-        <v>44.70513577147795</v>
+        <v>44.60239885774553</v>
       </c>
       <c r="K10" t="n">
-        <v>73.46427094760037</v>
+        <v>73.29544263880516</v>
       </c>
       <c r="L10" t="n">
-        <v>94.00897394969145</v>
+        <v>93.79293183998591</v>
       </c>
       <c r="M10" t="n">
-        <v>99.11928199917631</v>
+        <v>98.89149588583078</v>
       </c>
       <c r="N10" t="n">
-        <v>96.76244701572442</v>
+        <v>96.54007714702726</v>
       </c>
       <c r="O10" t="n">
-        <v>89.37578127490541</v>
+        <v>89.17038670955738</v>
       </c>
       <c r="P10" t="n">
-        <v>76.47642102401214</v>
+        <v>76.30067049034926</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.94830983555142</v>
+        <v>52.82662927590254</v>
       </c>
       <c r="R10" t="n">
-        <v>28.43147762964252</v>
+        <v>28.36613922468938</v>
       </c>
       <c r="S10" t="n">
-        <v>11.01964064214005</v>
+        <v>10.99431639582077</v>
       </c>
       <c r="T10" t="n">
-        <v>2.701737663957134</v>
+        <v>2.695528798140721</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03441100593371139</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H11" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I11" t="n">
         <v>72.01212845185798</v>
@@ -31767,22 +31767,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L11" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M11" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N11" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O11" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P11" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R11" t="n">
         <v>117.334332763479</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H12" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I12" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J12" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K12" t="n">
         <v>161.3833488850657</v>
@@ -31849,7 +31849,7 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M12" t="n">
-        <v>222.8398747259509</v>
+        <v>222.8398747259508</v>
       </c>
       <c r="N12" t="n">
         <v>207.056104036874</v>
@@ -31864,16 +31864,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R12" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S12" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T12" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,16 +31913,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H13" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I13" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J13" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K13" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L13" t="n">
         <v>124.569106525823</v>
@@ -31940,10 +31940,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R13" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S13" t="n">
         <v>14.60186970832839</v>
@@ -31952,7 +31952,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H14" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I14" t="n">
         <v>72.01212845185798</v>
@@ -32004,22 +32004,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L14" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M14" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N14" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O14" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P14" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R14" t="n">
         <v>117.334332763479</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H15" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I15" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J15" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K15" t="n">
         <v>161.3833488850657</v>
@@ -32086,13 +32086,13 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M15" t="n">
-        <v>222.8398747259509</v>
+        <v>237.1098912171571</v>
       </c>
       <c r="N15" t="n">
-        <v>207.056104036874</v>
+        <v>221.3261205280803</v>
       </c>
       <c r="O15" t="n">
-        <v>223.515857614999</v>
+        <v>237.7858741062053</v>
       </c>
       <c r="P15" t="n">
         <v>190.8441275431999</v>
@@ -32101,16 +32101,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R15" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S15" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T15" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,16 +32150,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H16" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I16" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J16" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K16" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L16" t="n">
         <v>124.569106525823</v>
@@ -32177,10 +32177,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R16" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S16" t="n">
         <v>14.60186970832839</v>
@@ -32189,7 +32189,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,10 +32323,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M18" t="n">
-        <v>237.1098912171571</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N18" t="n">
-        <v>221.3261205280803</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O18" t="n">
         <v>237.7858741062053</v>
@@ -32466,7 +32466,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H20" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I20" t="n">
         <v>72.01212845185798</v>
@@ -32478,22 +32478,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L20" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M20" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N20" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O20" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P20" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R20" t="n">
         <v>117.334332763479</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H21" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I21" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J21" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K21" t="n">
         <v>161.3833488850657</v>
@@ -32560,10 +32560,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M21" t="n">
-        <v>237.1098912171571</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N21" t="n">
-        <v>221.3261205280803</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O21" t="n">
         <v>237.7858741062053</v>
@@ -32575,16 +32575,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R21" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S21" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T21" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,16 +32624,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H22" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I22" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J22" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K22" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L22" t="n">
         <v>124.569106525823</v>
@@ -32651,10 +32651,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R22" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S22" t="n">
         <v>14.60186970832839</v>
@@ -32663,7 +32663,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33748,7 +33748,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N36" t="n">
-        <v>244.9619211465245</v>
+        <v>252.8244861242317</v>
       </c>
       <c r="O36" t="n">
         <v>237.7858741062053</v>
@@ -33985,7 +33985,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N39" t="n">
-        <v>244.9619211465245</v>
+        <v>238.5544696330254</v>
       </c>
       <c r="O39" t="n">
         <v>237.7858741062053</v>
@@ -34219,10 +34219,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M42" t="n">
-        <v>246.4756753443951</v>
+        <v>238.2195668791772</v>
       </c>
       <c r="N42" t="n">
-        <v>230.6919046553182</v>
+        <v>222.4357961901003</v>
       </c>
       <c r="O42" t="n">
         <v>237.7858741062053</v>
@@ -34456,10 +34456,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M45" t="n">
-        <v>246.4756753443951</v>
+        <v>238.2195668791772</v>
       </c>
       <c r="N45" t="n">
-        <v>230.6919046553182</v>
+        <v>222.4357961901003</v>
       </c>
       <c r="O45" t="n">
         <v>237.7858741062053</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="M11" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="N11" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2686072756679088</v>
+        <v>0.2686072756679446</v>
       </c>
       <c r="P11" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14.36404809015059</v>
+        <v>14.36404809015056</v>
       </c>
       <c r="M12" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="N12" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="O12" t="n">
-        <v>14.96885011499904</v>
+        <v>14.96885011499901</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2686072756679088</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="M14" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N14" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O14" t="n">
-        <v>14.96885011499904</v>
+        <v>13.96205744399721</v>
       </c>
       <c r="P14" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>14.36404809015059</v>
+        <v>28.05749825847984</v>
       </c>
       <c r="M15" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="N15" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="O15" t="n">
-        <v>14.96885011499904</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>13.96205744399715</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M17" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N17" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O17" t="n">
-        <v>29.23886660620531</v>
+        <v>29.42947135387475</v>
       </c>
       <c r="P17" t="n">
         <v>14.09544081448269</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>28.05749825847984</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M18" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N18" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O18" t="n">
-        <v>29.23886660620531</v>
+        <v>43.52491216835742</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>13.9620574439972</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M20" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N20" t="n">
-        <v>29.23886660620531</v>
+        <v>29.42947135387475</v>
       </c>
       <c r="O20" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="P20" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L21" t="n">
-        <v>28.05749825847987</v>
+        <v>31.09237960294628</v>
       </c>
       <c r="M21" t="n">
+        <v>45.35754004913036</v>
+      </c>
+      <c r="N21" t="n">
+        <v>45.35754004913036</v>
+      </c>
+      <c r="O21" t="n">
         <v>29.23886660620531</v>
-      </c>
-      <c r="N21" t="n">
-        <v>29.23886660620531</v>
-      </c>
-      <c r="O21" t="n">
-        <v>29.23886660620528</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,13 +36366,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M23" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N23" t="n">
-        <v>60.29863175498013</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O23" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P23" t="n">
         <v>14.09544081448269</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>59.03713640608721</v>
+        <v>72.64725070857367</v>
       </c>
       <c r="M24" t="n">
-        <v>45.35754004913036</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N24" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O24" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M26" t="n">
-        <v>60.29863175498012</v>
+        <v>75.70608231735575</v>
       </c>
       <c r="N26" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O26" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P26" t="n">
         <v>14.09544081448269</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M27" t="n">
-        <v>67.84351733964857</v>
+        <v>51.27094908007548</v>
       </c>
       <c r="N27" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O27" t="n">
-        <v>36.55115911556899</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M29" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N29" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O29" t="n">
-        <v>60.29863175498013</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P29" t="n">
         <v>14.09544081448269</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>58.34947580821807</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M30" t="n">
         <v>45.35754004913036</v>
@@ -36925,10 +36925,10 @@
         <v>67.84351733964857</v>
       </c>
       <c r="O30" t="n">
-        <v>29.23886660620531</v>
+        <v>35.15227563715043</v>
       </c>
       <c r="P30" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>51.00692430942247</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M32" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735575</v>
       </c>
       <c r="N32" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O32" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P32" t="n">
         <v>14.09544081448269</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L33" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M33" t="n">
-        <v>67.84351733964857</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N33" t="n">
         <v>67.84351733964857</v>
       </c>
       <c r="O33" t="n">
-        <v>65.10236512390517</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>22.71974307173933</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>36.64287621927192</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M35" t="n">
-        <v>52.87466722464953</v>
+        <v>60.73723220235669</v>
       </c>
       <c r="N35" t="n">
-        <v>52.87466722464953</v>
+        <v>60.73723220235669</v>
       </c>
       <c r="O35" t="n">
-        <v>52.87466722464953</v>
+        <v>46.37318411220618</v>
       </c>
       <c r="P35" t="n">
         <v>14.09544081448269</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>28.55120600833618</v>
       </c>
       <c r="L36" t="n">
-        <v>52.87466722464953</v>
+        <v>60.73723220235669</v>
       </c>
       <c r="M36" t="n">
-        <v>50.73831703375463</v>
+        <v>60.73723220235669</v>
       </c>
       <c r="N36" t="n">
-        <v>52.87466722464953</v>
+        <v>60.73723220235669</v>
       </c>
       <c r="O36" t="n">
-        <v>52.87466722464953</v>
+        <v>29.73199661008692</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>36.64287621927192</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="M38" t="n">
-        <v>52.87466722464953</v>
+        <v>30.49431163561112</v>
       </c>
       <c r="N38" t="n">
-        <v>52.87466722464953</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="O38" t="n">
-        <v>52.87466722464953</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="P38" t="n">
         <v>14.09544081448269</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>29.70423820093761</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="M39" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="N39" t="n">
-        <v>52.87466722464953</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="O39" t="n">
-        <v>52.87466722464953</v>
+        <v>45.69942811211386</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="M41" t="n">
-        <v>22.9494260509427</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N41" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="O41" t="n">
-        <v>38.60465073344326</v>
+        <v>15.02689772573356</v>
       </c>
       <c r="P41" t="n">
         <v>14.09544081448269</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>28.55120600833618</v>
+        <v>15.8679661120857</v>
       </c>
       <c r="L42" t="n">
-        <v>17.85944498432713</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M42" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N42" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="O42" t="n">
         <v>29.23886660620531</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="M44" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N44" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="O44" t="n">
-        <v>22.94942605094269</v>
+        <v>15.02689772573356</v>
       </c>
       <c r="P44" t="n">
         <v>14.09544081448269</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>17.85944498432713</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M45" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N45" t="n">
-        <v>38.60465073344326</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="O45" t="n">
         <v>29.23886660620531</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>15.8679661120857</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
